--- a/data/formatted/playoffdata200102.xlsx
+++ b/data/formatted/playoffdata200102.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F9ACF9-CB05-405B-BC1E-E975394620C9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B46F625-9207-4B2E-84CA-A80F12AC0BD3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{E2508035-1B42-461B-9187-EF6FC9259663}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{E2508035-1B42-461B-9187-EF6FC9259663}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>Wisconsin</t>
   </si>
   <si>
-    <t>St. Johnâ€™s (NY)</t>
-  </si>
-  <si>
     <t>Tulsa</t>
   </si>
   <si>
@@ -84,15 +81,9 @@
     <t>Murray State</t>
   </si>
   <si>
-    <t>NC State</t>
-  </si>
-  <si>
     <t>Michigan State</t>
   </si>
   <si>
-    <t>Uconn</t>
-  </si>
-  <si>
     <t>Hampton</t>
   </si>
   <si>
@@ -162,21 +153,9 @@
     <t>Utah</t>
   </si>
   <si>
-    <t>UNC Wilmington</t>
-  </si>
-  <si>
-    <t>USC</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
     <t>Penn</t>
   </si>
   <si>
-    <t>Pitt</t>
-  </si>
-  <si>
     <t>Central Connecticut</t>
   </si>
   <si>
@@ -201,9 +180,6 @@
     <t>UCLA</t>
   </si>
   <si>
-    <t>Ole Miss</t>
-  </si>
-  <si>
     <t>Missouri</t>
   </si>
   <si>
@@ -225,9 +201,6 @@
     <t>Arizona</t>
   </si>
   <si>
-    <t>UCSB</t>
-  </si>
-  <si>
     <t>Xavier</t>
   </si>
   <si>
@@ -237,10 +210,37 @@
     <t>Oklahoma</t>
   </si>
   <si>
-    <t>UIC</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kansas </t>
+  </si>
+  <si>
+    <t>St John's (NY)</t>
+  </si>
+  <si>
+    <t>North Carolina State</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>North Carolina-Wilmington</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>UC-Santa Barbara</t>
+  </si>
+  <si>
+    <t>Illinois-Chicago</t>
+  </si>
+  <si>
+    <t>Sothern University of University of University of California</t>
+  </si>
+  <si>
+    <t>University of University of University of California</t>
+  </si>
+  <si>
+    <t>Pittsburghsburghsburgh</t>
   </si>
 </sst>
 </file>
@@ -645,7 +645,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="E3">
         <v>9</v>
@@ -656,13 +656,13 @@
         <v>200102</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -673,13 +673,13 @@
         <v>200102</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>13</v>
@@ -690,13 +690,13 @@
         <v>200102</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>6</v>
@@ -707,13 +707,13 @@
         <v>200102</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>14</v>
@@ -724,13 +724,13 @@
         <v>200102</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -741,13 +741,13 @@
         <v>200102</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>15</v>
@@ -775,13 +775,13 @@
         <v>200102</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>12</v>
@@ -792,13 +792,13 @@
         <v>200102</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -809,13 +809,13 @@
         <v>200102</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="E13">
         <v>7</v>
@@ -832,7 +832,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -843,13 +843,13 @@
         <v>200102</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>11</v>
@@ -866,7 +866,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -877,13 +877,13 @@
         <v>200102</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -894,13 +894,13 @@
         <v>200102</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>9</v>
@@ -911,13 +911,13 @@
         <v>200102</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>5</v>
@@ -928,13 +928,13 @@
         <v>200102</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E20">
         <v>13</v>
@@ -945,13 +945,13 @@
         <v>200102</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C21">
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>11</v>
@@ -962,13 +962,13 @@
         <v>200102</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E22">
         <v>14</v>
@@ -979,13 +979,13 @@
         <v>200102</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C23">
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E23">
         <v>10</v>
@@ -996,13 +996,13 @@
         <v>200102</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E24">
         <v>15</v>
@@ -1013,13 +1013,13 @@
         <v>200102</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E25">
         <v>8</v>
@@ -1030,13 +1030,13 @@
         <v>200102</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C26">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>12</v>
@@ -1047,13 +1047,13 @@
         <v>200102</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C27">
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -1064,13 +1064,13 @@
         <v>200102</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E28">
         <v>7</v>
@@ -1081,13 +1081,13 @@
         <v>200102</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E29">
         <v>4</v>
@@ -1098,13 +1098,13 @@
         <v>200102</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E30">
         <v>6</v>
@@ -1115,13 +1115,13 @@
         <v>200102</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -1132,13 +1132,13 @@
         <v>200102</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E32">
         <v>16</v>
@@ -1149,13 +1149,13 @@
         <v>200102</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C33">
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E33">
         <v>9</v>
@@ -1166,13 +1166,13 @@
         <v>200102</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C34">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E34">
         <v>12</v>
@@ -1183,13 +1183,13 @@
         <v>200102</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C35">
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="E35">
         <v>4</v>
@@ -1200,13 +1200,13 @@
         <v>200102</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C36">
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E36">
         <v>11</v>
@@ -1217,13 +1217,13 @@
         <v>200102</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C37">
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E37">
         <v>14</v>
@@ -1234,13 +1234,13 @@
         <v>200102</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C38">
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E38">
         <v>7</v>
@@ -1251,13 +1251,13 @@
         <v>200102</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E39">
         <v>15</v>
@@ -1268,13 +1268,13 @@
         <v>200102</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E40">
         <v>8</v>
@@ -1285,13 +1285,13 @@
         <v>200102</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C41">
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="E41">
         <v>13</v>
@@ -1302,13 +1302,13 @@
         <v>200102</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C42">
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="E42">
         <v>6</v>
@@ -1319,13 +1319,13 @@
         <v>200102</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C43">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -1336,13 +1336,13 @@
         <v>200102</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C44">
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1353,13 +1353,13 @@
         <v>200102</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C45">
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E45">
         <v>3</v>
@@ -1370,13 +1370,13 @@
         <v>200102</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C46">
         <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E46">
         <v>10</v>
@@ -1387,13 +1387,13 @@
         <v>200102</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E47">
         <v>16</v>
@@ -1404,13 +1404,13 @@
         <v>200102</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C48">
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E48">
         <v>9</v>
@@ -1421,13 +1421,13 @@
         <v>200102</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C49">
         <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E49">
         <v>5</v>
@@ -1438,13 +1438,13 @@
         <v>200102</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C50">
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E50">
         <v>13</v>
@@ -1455,13 +1455,13 @@
         <v>200102</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C51">
         <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E51">
         <v>6</v>
@@ -1472,13 +1472,13 @@
         <v>200102</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E52">
         <v>14</v>
@@ -1489,13 +1489,13 @@
         <v>200102</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C53">
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E53">
         <v>10</v>
@@ -1506,13 +1506,13 @@
         <v>200102</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E54">
         <v>15</v>
@@ -1523,13 +1523,13 @@
         <v>200102</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C55">
         <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -1540,13 +1540,13 @@
         <v>200102</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C56">
         <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E56">
         <v>4</v>
@@ -1557,13 +1557,13 @@
         <v>200102</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C57">
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E57">
         <v>11</v>
@@ -1574,13 +1574,13 @@
         <v>200102</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C58">
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E58">
         <v>7</v>
@@ -1591,13 +1591,13 @@
         <v>200102</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C59">
         <v>12</v>
       </c>
       <c r="D59" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E59">
         <v>8</v>
@@ -1608,13 +1608,13 @@
         <v>200102</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C60">
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E60">
         <v>3</v>
@@ -1625,13 +1625,13 @@
         <v>200102</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E61">
         <v>12</v>
@@ -1648,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -1659,13 +1659,13 @@
         <v>200102</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C63">
         <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -1682,7 +1682,7 @@
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E64">
         <v>5</v>
